--- a/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
+++ b/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="902">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -379,13 +379,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-18T13:21:40Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77164924866f41ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.06adfe0068^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T09:56:49Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2ae46c0d2ac4c3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.26a6c1f1a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -399,13 +399,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-18T18:00:50Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">046d5740c103bf91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.06180c380b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:00:49Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">940293578432bba8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.d53ce1a769^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -604,10 +604,10 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-25T09:32:37Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5c03042a142080bd</t>
+    <t xml:space="preserve">2023-07-28T11:11:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d02f9ff619e76321</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
@@ -696,10 +696,10 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-25T09:42:44Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">818f28d2f0b59561</t>
+    <t xml:space="preserve">2023-07-28T11:05:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d5567c36a53d18c</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-28T12:05:00Z</t>
   </si>
   <si>
     <t xml:space="preserve">Errore  durante la validazione del CDA2 (problemi di comunicazione con il server di validazione)</t>
@@ -926,13 +929,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T15:27:41Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0b2abe2b043f54a0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.360b179e79^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:05:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4129f00d9e8f9fc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.8fb35c228f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore sintattico durante la validazione del CDA2 (assenza di riservatezza)</t>
@@ -946,13 +949,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T15:35:31Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3f7edf467a9c10bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.7a043d0f01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:15:03Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f56aa666af9f5524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.f4beb0fc66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico durante la validazione del CDA2 (parametri paziente)</t>
@@ -965,13 +968,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T15:39:54Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adf585747e8c8f88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.e1cab6e143^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:20:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b50fef61cf963d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.435aba1ec3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico durante la validazione del CDA2 (parametri riservatezza)</t>
@@ -984,13 +987,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T15:44:12Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64ea29392d3c74b9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.500e8a947b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:22:57Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdf2e9ddfa2954e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.6b02e92e3e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT9_KO</t>
@@ -1001,13 +1004,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T15:47:36Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18afee8931ef950a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.f1d31478cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:25:52Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12b747a6f8f6c3f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.c6409a97b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT10_KO</t>
@@ -1018,13 +1021,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T15:51:06Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73cdc2ed7ba92d46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.b9e8008f99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:41:14Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59dde7d320f9c77a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.dba7aee81b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT11_KO</t>
@@ -1046,13 +1049,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-24T09:38:49Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f79b52efed36dd75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.5c43ae79df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:43:42Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9dc95264928cf0fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.9a6fc275bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico durante la validazione del CDA2 (priorità)</t>
@@ -1065,13 +1068,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-24T12:40:16Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76178ea3fbe68938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.0babf009c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:45:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbdc706329ec6480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.3c6ea7b12f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore sintattico durante la validazione del CDA2 (prescrizione)</t>
@@ -1084,13 +1087,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-24T12:31:06Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad948a90191817fb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.6587717dc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:47:58Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3373e45733b3788c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.ed266d5c1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore sintattico durante la validazione del CDA2 (esame eseguito)</t>
@@ -1104,13 +1107,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T16:25:45Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">683adb216cbb4d45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.86d85520c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:51:41Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25d634881262c680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.e17ffeea9ae891e914b57558d2f1511c55aedfb3beb6603e487bdf7e57014fae.1ce59ae118^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore sintattico durante la validazione del CDA2 (referto)</t>
@@ -3968,13 +3971,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-18T18:03:27Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41821aca21463c08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.dfbfc57064^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-28T10:57:20Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3129a3d73b218bf9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.5b34df11aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT0</t>
@@ -4196,7 +4199,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4257,6 +4260,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4407,7 +4416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4544,12 +4553,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4702,7 +4719,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -5776,7 +5793,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -6881,13 +6898,13 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J20" activeCellId="0" sqref="J20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="F82" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+      <selection pane="topRight" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -7460,7 +7477,7 @@
         <v>72</v>
       </c>
       <c r="F19" s="27" t="n">
-        <v>45125</v>
+        <v>45135</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>73</v>
@@ -7487,7 +7504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
         <v>12</v>
       </c>
@@ -7503,8 +7520,8 @@
       <c r="E20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="27" t="n">
-        <v>45125</v>
+      <c r="F20" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>79</v>
@@ -7531,7 +7548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>13</v>
       </c>
@@ -7554,7 +7571,7 @@
       <c r="J21" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="35" t="s">
         <v>85</v>
       </c>
       <c r="L21" s="29"/>
@@ -7569,7 +7586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>14</v>
       </c>
@@ -8028,7 +8045,7 @@
       <c r="D35" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F35" s="27"/>
@@ -8062,7 +8079,7 @@
       <c r="D36" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F36" s="27"/>
@@ -8096,7 +8113,7 @@
       <c r="D37" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F37" s="27"/>
@@ -8117,7 +8134,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="n">
         <v>31</v>
       </c>
@@ -8130,11 +8147,11 @@
       <c r="D38" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="27" t="n">
-        <v>45132</v>
+      <c r="F38" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>122</v>
@@ -8155,7 +8172,7 @@
       <c r="M38" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="35" t="s">
         <v>125</v>
       </c>
       <c r="O38" s="29" t="s">
@@ -8171,7 +8188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="n">
         <v>32</v>
       </c>
@@ -8184,7 +8201,7 @@
       <c r="D39" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F39" s="27"/>
@@ -8205,7 +8222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="n">
         <v>33</v>
       </c>
@@ -8218,7 +8235,7 @@
       <c r="D40" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F40" s="27"/>
@@ -8239,7 +8256,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="n">
         <v>34</v>
       </c>
@@ -8252,7 +8269,7 @@
       <c r="D41" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F41" s="27"/>
@@ -8273,7 +8290,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="n">
         <v>35</v>
       </c>
@@ -8286,7 +8303,7 @@
       <c r="D42" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F42" s="27"/>
@@ -8307,7 +8324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="n">
         <v>36</v>
       </c>
@@ -8320,7 +8337,7 @@
       <c r="D43" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F43" s="27"/>
@@ -8341,7 +8358,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="n">
         <v>37</v>
       </c>
@@ -8354,7 +8371,7 @@
       <c r="D44" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F44" s="27"/>
@@ -8375,7 +8392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="n">
         <v>38</v>
       </c>
@@ -8388,7 +8405,7 @@
       <c r="D45" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F45" s="27"/>
@@ -8409,7 +8426,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="n">
         <v>39</v>
       </c>
@@ -8422,11 +8439,11 @@
       <c r="D46" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="27" t="n">
-        <v>45132</v>
+      <c r="F46" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>137</v>
@@ -8463,7 +8480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="n">
         <v>40</v>
       </c>
@@ -8476,7 +8493,7 @@
       <c r="D47" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F47" s="27"/>
@@ -8497,7 +8514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="n">
         <v>41</v>
       </c>
@@ -8510,7 +8527,7 @@
       <c r="D48" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F48" s="27"/>
@@ -8531,7 +8548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="n">
         <v>42</v>
       </c>
@@ -8544,7 +8561,7 @@
       <c r="D49" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F49" s="27"/>
@@ -8565,7 +8582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="n">
         <v>43</v>
       </c>
@@ -8578,7 +8595,7 @@
       <c r="D50" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F50" s="27"/>
@@ -8599,7 +8616,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="57.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="n">
         <v>44</v>
       </c>
@@ -8635,7 +8652,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="57.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="n">
         <v>45</v>
       </c>
@@ -8671,7 +8688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="57.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="n">
         <v>46</v>
       </c>
@@ -8707,7 +8724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="203.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="n">
         <v>47</v>
       </c>
@@ -8723,8 +8740,12 @@
       <c r="E54" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
+      <c r="F54" s="34" t="n">
+        <v>45135</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>148</v>
+      </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="29" t="s">
@@ -8737,8 +8758,8 @@
       <c r="M54" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="N54" s="34" t="s">
-        <v>148</v>
+      <c r="N54" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="O54" s="29" t="s">
         <v>76</v>
@@ -8753,7 +8774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="57.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="n">
         <v>48</v>
       </c>
@@ -8764,7 +8785,7 @@
         <v>127</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>144</v>
@@ -8789,7 +8810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="57.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="n">
         <v>49</v>
       </c>
@@ -8800,7 +8821,7 @@
         <v>88</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E56" s="26" t="s">
         <v>144</v>
@@ -8825,7 +8846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="57.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="n">
         <v>50</v>
       </c>
@@ -8836,7 +8857,7 @@
         <v>97</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>144</v>
@@ -8861,7 +8882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="57.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="n">
         <v>51</v>
       </c>
@@ -8872,7 +8893,7 @@
         <v>106</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>144</v>
@@ -8897,7 +8918,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="n">
         <v>52</v>
       </c>
@@ -8908,10 +8929,10 @@
         <v>49</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="28"/>
@@ -8931,7 +8952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="n">
         <v>53</v>
       </c>
@@ -8942,10 +8963,10 @@
         <v>49</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="28"/>
@@ -8965,7 +8986,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="n">
         <v>54</v>
       </c>
@@ -8976,10 +8997,10 @@
         <v>49</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="28"/>
@@ -8999,7 +9020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="n">
         <v>55</v>
       </c>
@@ -9010,10 +9031,10 @@
         <v>49</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="28"/>
@@ -9033,7 +9054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="n">
         <v>56</v>
       </c>
@@ -9044,10 +9065,10 @@
         <v>49</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="28"/>
@@ -9067,7 +9088,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="n">
         <v>57</v>
       </c>
@@ -9078,10 +9099,10 @@
         <v>49</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="28"/>
@@ -9101,7 +9122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="n">
         <v>58</v>
       </c>
@@ -9112,10 +9133,10 @@
         <v>49</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="28"/>
@@ -9135,7 +9156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="n">
         <v>59</v>
       </c>
@@ -9146,10 +9167,10 @@
         <v>49</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="28"/>
@@ -9169,7 +9190,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="n">
         <v>60</v>
       </c>
@@ -9180,10 +9201,10 @@
         <v>49</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="28"/>
@@ -9203,7 +9224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="n">
         <v>61</v>
       </c>
@@ -9214,10 +9235,10 @@
         <v>49</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="28"/>
@@ -9237,7 +9258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="24" t="n">
         <v>62</v>
       </c>
@@ -9248,10 +9269,10 @@
         <v>49</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="28"/>
@@ -9271,7 +9292,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="24" t="n">
         <v>63</v>
       </c>
@@ -9282,10 +9303,10 @@
         <v>61</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="28"/>
@@ -9305,7 +9326,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="24" t="n">
         <v>64</v>
       </c>
@@ -9316,10 +9337,10 @@
         <v>61</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="28"/>
@@ -9339,7 +9360,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="24" t="n">
         <v>65</v>
       </c>
@@ -9350,10 +9371,10 @@
         <v>61</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="28"/>
@@ -9373,7 +9394,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="24" t="n">
         <v>66</v>
       </c>
@@ -9384,10 +9405,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="28"/>
@@ -9407,7 +9428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="24" t="n">
         <v>67</v>
       </c>
@@ -9418,10 +9439,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="28"/>
@@ -9441,7 +9462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="24" t="n">
         <v>68</v>
       </c>
@@ -9452,10 +9473,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F75" s="27"/>
       <c r="G75" s="28"/>
@@ -9475,7 +9496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="24" t="n">
         <v>69</v>
       </c>
@@ -9486,10 +9507,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="28"/>
@@ -9509,7 +9530,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="24" t="n">
         <v>70</v>
       </c>
@@ -9520,10 +9541,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="28"/>
@@ -9543,7 +9564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="24" t="n">
         <v>71</v>
       </c>
@@ -9554,10 +9575,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="28"/>
@@ -9577,7 +9598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="24" t="n">
         <v>72</v>
       </c>
@@ -9588,10 +9609,10 @@
         <v>61</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="28"/>
@@ -9611,7 +9632,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="24" t="n">
         <v>73</v>
       </c>
@@ -9622,10 +9643,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="28"/>
@@ -9645,7 +9666,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="n">
         <v>74</v>
       </c>
@@ -9656,10 +9677,10 @@
         <v>61</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="28"/>
@@ -9679,7 +9700,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="24" t="n">
         <v>75</v>
       </c>
@@ -9690,22 +9711,22 @@
         <v>70</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82" s="27" t="n">
-        <v>45128</v>
+        <v>201</v>
+      </c>
+      <c r="F82" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J82" s="29" t="s">
         <v>76</v>
@@ -9717,8 +9738,8 @@
       <c r="M82" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="N82" s="34" t="s">
-        <v>204</v>
+      <c r="N82" s="35" t="s">
+        <v>205</v>
       </c>
       <c r="O82" s="29" t="s">
         <v>76</v>
@@ -9733,7 +9754,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="n">
         <v>76</v>
       </c>
@@ -9744,22 +9765,22 @@
         <v>70</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F83" s="27" t="n">
-        <v>45128</v>
+        <v>207</v>
+      </c>
+      <c r="F83" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J83" s="29" t="s">
         <v>76</v>
@@ -9772,7 +9793,7 @@
         <v>76</v>
       </c>
       <c r="N83" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O83" s="29" t="s">
         <v>76</v>
@@ -9787,7 +9808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="24" t="n">
         <v>77</v>
       </c>
@@ -9798,22 +9819,22 @@
         <v>70</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F84" s="27" t="n">
-        <v>45128</v>
+        <v>213</v>
+      </c>
+      <c r="F84" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J84" s="29" t="s">
         <v>76</v>
@@ -9826,7 +9847,7 @@
         <v>76</v>
       </c>
       <c r="N84" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O84" s="29" t="s">
         <v>76</v>
@@ -9841,7 +9862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="n">
         <v>78</v>
       </c>
@@ -9852,22 +9873,22 @@
         <v>70</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="F85" s="27" t="n">
-        <v>45128</v>
+        <v>219</v>
+      </c>
+      <c r="F85" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J85" s="29" t="s">
         <v>76</v>
@@ -9880,7 +9901,7 @@
         <v>76</v>
       </c>
       <c r="N85" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O85" s="29" t="s">
         <v>76</v>
@@ -9895,7 +9916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="24" t="n">
         <v>79</v>
       </c>
@@ -9906,22 +9927,22 @@
         <v>70</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="F86" s="27" t="n">
-        <v>45128</v>
+        <v>224</v>
+      </c>
+      <c r="F86" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J86" s="29" t="s">
         <v>76</v>
@@ -9934,7 +9955,7 @@
         <v>76</v>
       </c>
       <c r="N86" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O86" s="29" t="s">
         <v>76</v>
@@ -9949,7 +9970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="n">
         <v>80</v>
       </c>
@@ -9960,22 +9981,22 @@
         <v>70</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F87" s="27" t="n">
-        <v>45128</v>
+        <v>229</v>
+      </c>
+      <c r="F87" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H87" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J87" s="29" t="s">
         <v>76</v>
@@ -9988,7 +10009,7 @@
         <v>76</v>
       </c>
       <c r="N87" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O87" s="29" t="s">
         <v>76</v>
@@ -10014,10 +10035,10 @@
         <v>70</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="28"/>
@@ -10027,7 +10048,7 @@
         <v>84</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L88" s="29"/>
       <c r="M88" s="29"/>
@@ -10041,7 +10062,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="n">
         <v>82</v>
       </c>
@@ -10052,22 +10073,22 @@
         <v>70</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F89" s="27" t="n">
-        <v>45131</v>
+        <v>237</v>
+      </c>
+      <c r="F89" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J89" s="29" t="s">
         <v>76</v>
@@ -10080,7 +10101,7 @@
         <v>76</v>
       </c>
       <c r="N89" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O89" s="29" t="s">
         <v>76</v>
@@ -10095,7 +10116,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="n">
         <v>83</v>
       </c>
@@ -10106,22 +10127,22 @@
         <v>70</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" s="27" t="n">
-        <v>45131</v>
+        <v>243</v>
+      </c>
+      <c r="F90" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J90" s="29" t="s">
         <v>76</v>
@@ -10134,7 +10155,7 @@
         <v>76</v>
       </c>
       <c r="N90" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O90" s="29" t="s">
         <v>76</v>
@@ -10149,7 +10170,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="n">
         <v>84</v>
       </c>
@@ -10160,22 +10181,22 @@
         <v>70</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F91" s="27" t="n">
-        <v>45131</v>
+        <v>249</v>
+      </c>
+      <c r="F91" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J91" s="29" t="s">
         <v>76</v>
@@ -10188,7 +10209,7 @@
         <v>76</v>
       </c>
       <c r="N91" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O91" s="29" t="s">
         <v>76</v>
@@ -10203,7 +10224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="188.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="n">
         <v>85</v>
       </c>
@@ -10214,22 +10235,22 @@
         <v>70</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="F92" s="27" t="n">
-        <v>45128</v>
+        <v>255</v>
+      </c>
+      <c r="F92" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J92" s="29" t="s">
         <v>76</v>
@@ -10242,13 +10263,13 @@
         <v>76</v>
       </c>
       <c r="N92" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O92" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P92" s="34" t="s">
-        <v>259</v>
+      <c r="P92" s="35" t="s">
+        <v>260</v>
       </c>
       <c r="Q92" s="29"/>
       <c r="R92" s="30"/>
@@ -10268,10 +10289,10 @@
         <v>70</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="28"/>
@@ -10281,7 +10302,7 @@
         <v>84</v>
       </c>
       <c r="K93" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
@@ -10306,10 +10327,10 @@
         <v>70</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="28"/>
@@ -10319,7 +10340,7 @@
         <v>84</v>
       </c>
       <c r="K94" s="29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L94" s="29"/>
       <c r="M94" s="29"/>
@@ -10344,10 +10365,10 @@
         <v>70</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="28"/>
@@ -10357,7 +10378,7 @@
         <v>84</v>
       </c>
       <c r="K95" s="29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
@@ -10371,7 +10392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="n">
         <v>89</v>
       </c>
@@ -10382,10 +10403,10 @@
         <v>70</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="28"/>
@@ -10395,7 +10416,7 @@
         <v>84</v>
       </c>
       <c r="K96" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L96" s="29"/>
       <c r="M96" s="29"/>
@@ -10409,7 +10430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="n">
         <v>90</v>
       </c>
@@ -10420,10 +10441,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="28"/>
@@ -10433,7 +10454,7 @@
         <v>84</v>
       </c>
       <c r="K97" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L97" s="29"/>
       <c r="M97" s="29"/>
@@ -10447,7 +10468,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="n">
         <v>91</v>
       </c>
@@ -10458,10 +10479,10 @@
         <v>70</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="28"/>
@@ -10471,7 +10492,7 @@
         <v>84</v>
       </c>
       <c r="K98" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
@@ -10485,7 +10506,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="n">
         <v>92</v>
       </c>
@@ -10496,10 +10517,10 @@
         <v>70</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="28"/>
@@ -10509,7 +10530,7 @@
         <v>84</v>
       </c>
       <c r="K99" s="29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
@@ -10523,7 +10544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="n">
         <v>93</v>
       </c>
@@ -10534,10 +10555,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="28"/>
@@ -10547,7 +10568,7 @@
         <v>84</v>
       </c>
       <c r="K100" s="29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L100" s="29"/>
       <c r="M100" s="29"/>
@@ -10561,7 +10582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="n">
         <v>94</v>
       </c>
@@ -10572,10 +10593,10 @@
         <v>88</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="28"/>
@@ -10595,7 +10616,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="n">
         <v>95</v>
       </c>
@@ -10606,10 +10627,10 @@
         <v>88</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="28"/>
@@ -10640,10 +10661,10 @@
         <v>88</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="28"/>
@@ -10674,10 +10695,10 @@
         <v>88</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="28"/>
@@ -10697,7 +10718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="n">
         <v>98</v>
       </c>
@@ -10708,10 +10729,10 @@
         <v>88</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="28"/>
@@ -10731,7 +10752,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="n">
         <v>99</v>
       </c>
@@ -10742,10 +10763,10 @@
         <v>88</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="28"/>
@@ -10776,10 +10797,10 @@
         <v>88</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="28"/>
@@ -10810,10 +10831,10 @@
         <v>88</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="28"/>
@@ -10833,7 +10854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="n">
         <v>102</v>
       </c>
@@ -10844,10 +10865,10 @@
         <v>88</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="28"/>
@@ -10867,7 +10888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="n">
         <v>103</v>
       </c>
@@ -10878,10 +10899,10 @@
         <v>88</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="28"/>
@@ -10912,10 +10933,10 @@
         <v>88</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="28"/>
@@ -10935,7 +10956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="n">
         <v>105</v>
       </c>
@@ -10946,10 +10967,10 @@
         <v>88</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="28"/>
@@ -10969,7 +10990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="n">
         <v>106</v>
       </c>
@@ -10980,10 +11001,10 @@
         <v>88</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="28"/>
@@ -11003,7 +11024,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="n">
         <v>107</v>
       </c>
@@ -11014,10 +11035,10 @@
         <v>97</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="28"/>
@@ -11037,7 +11058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="n">
         <v>108</v>
       </c>
@@ -11048,10 +11069,10 @@
         <v>97</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="28"/>
@@ -11071,7 +11092,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="n">
         <v>109</v>
       </c>
@@ -11082,10 +11103,10 @@
         <v>97</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="28"/>
@@ -11116,10 +11137,10 @@
         <v>97</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="28"/>
@@ -11139,7 +11160,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="n">
         <v>111</v>
       </c>
@@ -11150,10 +11171,10 @@
         <v>97</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F118" s="27"/>
       <c r="G118" s="28"/>
@@ -11173,7 +11194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="n">
         <v>112</v>
       </c>
@@ -11184,10 +11205,10 @@
         <v>97</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F119" s="27"/>
       <c r="G119" s="28"/>
@@ -11207,7 +11228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="n">
         <v>113</v>
       </c>
@@ -11218,10 +11239,10 @@
         <v>97</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="28"/>
@@ -11241,7 +11262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="n">
         <v>114</v>
       </c>
@@ -11252,10 +11273,10 @@
         <v>97</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="28"/>
@@ -11275,7 +11296,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="n">
         <v>115</v>
       </c>
@@ -11286,10 +11307,10 @@
         <v>97</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="28"/>
@@ -11309,7 +11330,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="n">
         <v>116</v>
       </c>
@@ -11320,10 +11341,10 @@
         <v>97</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F123" s="27"/>
       <c r="G123" s="28"/>
@@ -11343,7 +11364,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="n">
         <v>117</v>
       </c>
@@ -11354,10 +11375,10 @@
         <v>97</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="28"/>
@@ -11377,7 +11398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="n">
         <v>118</v>
       </c>
@@ -11388,10 +11409,10 @@
         <v>97</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F125" s="27"/>
       <c r="G125" s="28"/>
@@ -11411,7 +11432,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="n">
         <v>119</v>
       </c>
@@ -11422,10 +11443,10 @@
         <v>97</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F126" s="27"/>
       <c r="G126" s="28"/>
@@ -11445,7 +11466,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="n">
         <v>120</v>
       </c>
@@ -11456,10 +11477,10 @@
         <v>97</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="28"/>
@@ -11479,7 +11500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="n">
         <v>121</v>
       </c>
@@ -11490,10 +11511,10 @@
         <v>97</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F128" s="27"/>
       <c r="G128" s="28"/>
@@ -11513,7 +11534,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="n">
         <v>122</v>
       </c>
@@ -11524,10 +11545,10 @@
         <v>106</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F129" s="27"/>
       <c r="G129" s="28"/>
@@ -11547,7 +11568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="n">
         <v>123</v>
       </c>
@@ -11558,10 +11579,10 @@
         <v>106</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F130" s="27"/>
       <c r="G130" s="28"/>
@@ -11581,7 +11602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="n">
         <v>124</v>
       </c>
@@ -11592,10 +11613,10 @@
         <v>106</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F131" s="27"/>
       <c r="G131" s="28"/>
@@ -11626,10 +11647,10 @@
         <v>106</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F132" s="27"/>
       <c r="G132" s="28"/>
@@ -11649,7 +11670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="n">
         <v>126</v>
       </c>
@@ -11660,10 +11681,10 @@
         <v>106</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F133" s="27"/>
       <c r="G133" s="28"/>
@@ -11683,7 +11704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="n">
         <v>127</v>
       </c>
@@ -11694,10 +11715,10 @@
         <v>106</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F134" s="27"/>
       <c r="G134" s="28"/>
@@ -11717,7 +11738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="n">
         <v>128</v>
       </c>
@@ -11728,10 +11749,10 @@
         <v>106</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F135" s="27"/>
       <c r="G135" s="28"/>
@@ -11762,10 +11783,10 @@
         <v>106</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F136" s="27"/>
       <c r="G136" s="28"/>
@@ -11785,7 +11806,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="n">
         <v>130</v>
       </c>
@@ -11796,10 +11817,10 @@
         <v>106</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F137" s="27"/>
       <c r="G137" s="28"/>
@@ -11819,7 +11840,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="n">
         <v>131</v>
       </c>
@@ -11830,10 +11851,10 @@
         <v>106</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F138" s="27"/>
       <c r="G138" s="28"/>
@@ -11853,7 +11874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="n">
         <v>132</v>
       </c>
@@ -11864,10 +11885,10 @@
         <v>106</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F139" s="27"/>
       <c r="G139" s="28"/>
@@ -11898,10 +11919,10 @@
         <v>106</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F140" s="27"/>
       <c r="G140" s="28"/>
@@ -11921,7 +11942,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="n">
         <v>134</v>
       </c>
@@ -11932,10 +11953,10 @@
         <v>106</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="28"/>
@@ -11955,7 +11976,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="n">
         <v>135</v>
       </c>
@@ -11966,10 +11987,10 @@
         <v>106</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F142" s="27"/>
       <c r="G142" s="28"/>
@@ -11989,7 +12010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="n">
         <v>136</v>
       </c>
@@ -12000,10 +12021,10 @@
         <v>106</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F143" s="27"/>
       <c r="G143" s="28"/>
@@ -12034,10 +12055,10 @@
         <v>106</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F144" s="27"/>
       <c r="G144" s="28"/>
@@ -12057,7 +12078,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="n">
         <v>138</v>
       </c>
@@ -12068,10 +12089,10 @@
         <v>106</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F145" s="27"/>
       <c r="G145" s="28"/>
@@ -12091,7 +12112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="24" t="n">
         <v>139</v>
       </c>
@@ -12102,10 +12123,10 @@
         <v>106</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F146" s="27"/>
       <c r="G146" s="28"/>
@@ -12125,7 +12146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="24" t="n">
         <v>140</v>
       </c>
@@ -12136,10 +12157,10 @@
         <v>106</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F147" s="27"/>
       <c r="G147" s="28"/>
@@ -12170,10 +12191,10 @@
         <v>106</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F148" s="27"/>
       <c r="G148" s="28"/>
@@ -12193,7 +12214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="24" t="n">
         <v>142</v>
       </c>
@@ -12204,10 +12225,10 @@
         <v>106</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F149" s="27"/>
       <c r="G149" s="28"/>
@@ -12227,7 +12248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="24" t="n">
         <v>143</v>
       </c>
@@ -12238,10 +12259,10 @@
         <v>106</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F150" s="27"/>
       <c r="G150" s="28"/>
@@ -12261,7 +12282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="24" t="n">
         <v>144</v>
       </c>
@@ -12272,10 +12293,10 @@
         <v>106</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="28"/>
@@ -12295,7 +12316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="24" t="n">
         <v>145</v>
       </c>
@@ -12306,10 +12327,10 @@
         <v>106</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="28"/>
@@ -12329,7 +12350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="24" t="n">
         <v>146</v>
       </c>
@@ -12340,10 +12361,10 @@
         <v>106</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F153" s="27"/>
       <c r="G153" s="28"/>
@@ -12363,7 +12384,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="159" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="n">
         <v>147</v>
       </c>
@@ -12374,10 +12395,10 @@
         <v>127</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F154" s="27"/>
       <c r="G154" s="28"/>
@@ -12397,7 +12418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="159" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="24" t="n">
         <v>148</v>
       </c>
@@ -12408,10 +12429,10 @@
         <v>127</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F155" s="27"/>
       <c r="G155" s="28"/>
@@ -12431,7 +12452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="159" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="24" t="n">
         <v>149</v>
       </c>
@@ -12442,10 +12463,10 @@
         <v>127</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F156" s="27"/>
       <c r="G156" s="28"/>
@@ -12465,7 +12486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="159" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="24" t="n">
         <v>150</v>
       </c>
@@ -12476,10 +12497,10 @@
         <v>127</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F157" s="27"/>
       <c r="G157" s="28"/>
@@ -12510,10 +12531,10 @@
         <v>127</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F158" s="27"/>
       <c r="G158" s="28"/>
@@ -12533,7 +12554,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="24" t="n">
         <v>152</v>
       </c>
@@ -12544,10 +12565,10 @@
         <v>127</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="28"/>
@@ -12567,7 +12588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="24" t="n">
         <v>153</v>
       </c>
@@ -12578,10 +12599,10 @@
         <v>127</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F160" s="27"/>
       <c r="G160" s="28"/>
@@ -12601,7 +12622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="24" t="n">
         <v>154</v>
       </c>
@@ -12612,10 +12633,10 @@
         <v>127</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="28"/>
@@ -12635,7 +12656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="24" t="n">
         <v>155</v>
       </c>
@@ -12646,10 +12667,10 @@
         <v>127</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="28"/>
@@ -12669,7 +12690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="24" t="n">
         <v>156</v>
       </c>
@@ -12680,10 +12701,10 @@
         <v>127</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="28"/>
@@ -12703,7 +12724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="24" t="n">
         <v>157</v>
       </c>
@@ -12714,10 +12735,10 @@
         <v>127</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="28"/>
@@ -12737,7 +12758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="24" t="n">
         <v>158</v>
       </c>
@@ -12748,10 +12769,10 @@
         <v>127</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="28"/>
@@ -12771,7 +12792,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="24" t="n">
         <v>159</v>
       </c>
@@ -12782,10 +12803,10 @@
         <v>127</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="28"/>
@@ -12805,7 +12826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="101.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="24" t="n">
         <v>160</v>
       </c>
@@ -12816,10 +12837,10 @@
         <v>127</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F167" s="27"/>
       <c r="G167" s="28"/>
@@ -12839,7 +12860,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="24" t="n">
         <v>161</v>
       </c>
@@ -12850,10 +12871,10 @@
         <v>127</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F168" s="27"/>
       <c r="G168" s="28"/>
@@ -12873,7 +12894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="24" t="n">
         <v>162</v>
       </c>
@@ -12884,10 +12905,10 @@
         <v>127</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F169" s="27"/>
       <c r="G169" s="28"/>
@@ -12907,7 +12928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="24" t="n">
         <v>163</v>
       </c>
@@ -12918,10 +12939,10 @@
         <v>127</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F170" s="27"/>
       <c r="G170" s="28"/>
@@ -12941,7 +12962,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="24" t="n">
         <v>164</v>
       </c>
@@ -12952,10 +12973,10 @@
         <v>127</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="28"/>
@@ -12975,7 +12996,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="24" t="n">
         <v>165</v>
       </c>
@@ -12986,10 +13007,10 @@
         <v>127</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F172" s="27"/>
       <c r="G172" s="28"/>
@@ -13009,7 +13030,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="24" t="n">
         <v>166</v>
       </c>
@@ -13020,10 +13041,10 @@
         <v>127</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F173" s="27"/>
       <c r="G173" s="28"/>
@@ -13043,7 +13064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="24" t="n">
         <v>167</v>
       </c>
@@ -13054,10 +13075,10 @@
         <v>127</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F174" s="27"/>
       <c r="G174" s="28"/>
@@ -13077,7 +13098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="24" t="n">
         <v>168</v>
       </c>
@@ -13088,10 +13109,10 @@
         <v>127</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F175" s="27"/>
       <c r="G175" s="28"/>
@@ -13111,7 +13132,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="24" t="n">
         <v>169</v>
       </c>
@@ -13122,10 +13143,10 @@
         <v>127</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F176" s="27"/>
       <c r="G176" s="28"/>
@@ -13145,7 +13166,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="24" t="n">
         <v>170</v>
       </c>
@@ -13156,10 +13177,10 @@
         <v>119</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F177" s="27"/>
       <c r="G177" s="28"/>
@@ -13179,7 +13200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="24" t="n">
         <v>171</v>
       </c>
@@ -13190,10 +13211,10 @@
         <v>119</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F178" s="27"/>
       <c r="G178" s="28"/>
@@ -13213,7 +13234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="24" t="n">
         <v>172</v>
       </c>
@@ -13224,10 +13245,10 @@
         <v>119</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F179" s="27"/>
       <c r="G179" s="28"/>
@@ -13247,7 +13268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="24" t="n">
         <v>173</v>
       </c>
@@ -13258,10 +13279,10 @@
         <v>119</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F180" s="27"/>
       <c r="G180" s="28"/>
@@ -13292,10 +13313,10 @@
         <v>119</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F181" s="27"/>
       <c r="G181" s="28"/>
@@ -13315,7 +13336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="24" t="n">
         <v>175</v>
       </c>
@@ -13326,10 +13347,10 @@
         <v>119</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F182" s="27"/>
       <c r="G182" s="28"/>
@@ -13349,7 +13370,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="24" t="n">
         <v>176</v>
       </c>
@@ -13360,10 +13381,10 @@
         <v>119</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F183" s="27"/>
       <c r="G183" s="28"/>
@@ -13383,7 +13404,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="24" t="n">
         <v>177</v>
       </c>
@@ -13394,10 +13415,10 @@
         <v>119</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F184" s="27"/>
       <c r="G184" s="28"/>
@@ -13417,7 +13438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="24" t="n">
         <v>178</v>
       </c>
@@ -13428,10 +13449,10 @@
         <v>119</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F185" s="27"/>
       <c r="G185" s="28"/>
@@ -13451,7 +13472,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="24" t="n">
         <v>179</v>
       </c>
@@ -13462,10 +13483,10 @@
         <v>119</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F186" s="27"/>
       <c r="G186" s="28"/>
@@ -13485,7 +13506,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="24" t="n">
         <v>180</v>
       </c>
@@ -13496,10 +13517,10 @@
         <v>119</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F187" s="27"/>
       <c r="G187" s="28"/>
@@ -13530,10 +13551,10 @@
         <v>119</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F188" s="27"/>
       <c r="G188" s="28"/>
@@ -13553,7 +13574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="24" t="n">
         <v>182</v>
       </c>
@@ -13564,10 +13585,10 @@
         <v>119</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F189" s="27"/>
       <c r="G189" s="28"/>
@@ -13587,7 +13608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="24" t="n">
         <v>183</v>
       </c>
@@ -13598,10 +13619,10 @@
         <v>119</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F190" s="27"/>
       <c r="G190" s="28"/>
@@ -13621,7 +13642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="24" t="n">
         <v>184</v>
       </c>
@@ -13632,10 +13653,10 @@
         <v>119</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F191" s="27"/>
       <c r="G191" s="28"/>
@@ -13655,7 +13676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="24" t="n">
         <v>185</v>
       </c>
@@ -13666,10 +13687,10 @@
         <v>119</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F192" s="27"/>
       <c r="G192" s="28"/>
@@ -13689,7 +13710,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="24" t="n">
         <v>186</v>
       </c>
@@ -13700,10 +13721,10 @@
         <v>119</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F193" s="27"/>
       <c r="G193" s="28"/>
@@ -13723,7 +13744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="24" t="n">
         <v>187</v>
       </c>
@@ -13734,10 +13755,10 @@
         <v>119</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F194" s="27"/>
       <c r="G194" s="28"/>
@@ -13757,7 +13778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="24" t="n">
         <v>188</v>
       </c>
@@ -13768,10 +13789,10 @@
         <v>119</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F195" s="27"/>
       <c r="G195" s="28"/>
@@ -13791,7 +13812,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="24" t="n">
         <v>189</v>
       </c>
@@ -13802,10 +13823,10 @@
         <v>119</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F196" s="27"/>
       <c r="G196" s="28"/>
@@ -13825,7 +13846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="115.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="24" t="n">
         <v>190</v>
       </c>
@@ -13836,10 +13857,10 @@
         <v>119</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F197" s="27"/>
       <c r="G197" s="28"/>
@@ -13870,10 +13891,10 @@
         <v>49</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F198" s="27"/>
       <c r="G198" s="28"/>
@@ -13898,16 +13919,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C199" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F199" s="27"/>
       <c r="G199" s="28"/>
@@ -13932,16 +13953,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C200" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F200" s="27"/>
       <c r="G200" s="28"/>
@@ -13966,16 +13987,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C201" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F201" s="27"/>
       <c r="G201" s="28"/>
@@ -14000,16 +14021,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C202" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F202" s="27"/>
       <c r="G202" s="28"/>
@@ -14034,16 +14055,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C203" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F203" s="27"/>
       <c r="G203" s="28"/>
@@ -14063,21 +14084,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="174" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="24" t="n">
         <v>197</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C204" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F204" s="27"/>
       <c r="G204" s="28"/>
@@ -14097,21 +14118,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="24" t="n">
         <v>198</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C205" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E205" s="26" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F205" s="27"/>
       <c r="G205" s="28"/>
@@ -14136,16 +14157,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C206" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F206" s="27"/>
       <c r="G206" s="28"/>
@@ -14165,21 +14186,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="24" t="n">
         <v>200</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C207" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E207" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F207" s="27"/>
       <c r="G207" s="28"/>
@@ -14199,21 +14220,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="24" t="n">
         <v>201</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C208" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E208" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F208" s="27"/>
       <c r="G208" s="28"/>
@@ -14233,21 +14254,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="24" t="n">
         <v>202</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C209" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E209" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F209" s="27"/>
       <c r="G209" s="28"/>
@@ -14272,16 +14293,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C210" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E210" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F210" s="27"/>
       <c r="G210" s="28"/>
@@ -14306,16 +14327,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C211" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E211" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F211" s="27"/>
       <c r="G211" s="28"/>
@@ -14340,16 +14361,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C212" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E212" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F212" s="27"/>
       <c r="G212" s="28"/>
@@ -14374,16 +14395,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C213" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E213" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F213" s="27"/>
       <c r="G213" s="28"/>
@@ -14408,16 +14429,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C214" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E214" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F214" s="27"/>
       <c r="G214" s="28"/>
@@ -14442,16 +14463,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C215" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E215" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F215" s="27"/>
       <c r="G215" s="28"/>
@@ -14476,16 +14497,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C216" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E216" s="26" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F216" s="27"/>
       <c r="G216" s="28"/>
@@ -14510,16 +14531,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C217" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E217" s="26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F217" s="27"/>
       <c r="G217" s="28"/>
@@ -14544,16 +14565,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C218" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E218" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F218" s="27"/>
       <c r="G218" s="28"/>
@@ -14578,16 +14599,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C219" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E219" s="26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F219" s="27"/>
       <c r="G219" s="28"/>
@@ -14607,21 +14628,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="174" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="24" t="n">
         <v>213</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C220" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E220" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F220" s="27"/>
       <c r="G220" s="28"/>
@@ -14641,21 +14662,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="24" t="n">
         <v>214</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C221" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F221" s="27"/>
       <c r="G221" s="28"/>
@@ -14680,16 +14701,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C222" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E222" s="26" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F222" s="27"/>
       <c r="G222" s="28"/>
@@ -14709,21 +14730,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="24" t="n">
         <v>216</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C223" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E223" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F223" s="27"/>
       <c r="G223" s="28"/>
@@ -14743,21 +14764,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="24" t="n">
         <v>217</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C224" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E224" s="26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F224" s="27"/>
       <c r="G224" s="28"/>
@@ -14777,21 +14798,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="24" t="n">
         <v>218</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C225" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E225" s="26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F225" s="27"/>
       <c r="G225" s="28"/>
@@ -14816,16 +14837,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C226" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E226" s="26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F226" s="27"/>
       <c r="G226" s="28"/>
@@ -14850,16 +14871,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C227" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E227" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F227" s="27"/>
       <c r="G227" s="28"/>
@@ -14879,21 +14900,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="24" t="n">
         <v>221</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C228" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E228" s="26" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F228" s="27"/>
       <c r="G228" s="28"/>
@@ -14913,21 +14934,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="24" t="n">
         <v>222</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C229" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E229" s="26" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F229" s="27"/>
       <c r="G229" s="28"/>
@@ -14947,21 +14968,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="24" t="n">
         <v>223</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C230" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E230" s="26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F230" s="27"/>
       <c r="G230" s="28"/>
@@ -14986,16 +15007,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C231" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E231" s="26" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F231" s="27"/>
       <c r="G231" s="28"/>
@@ -15020,16 +15041,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C232" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E232" s="26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F232" s="27"/>
       <c r="G232" s="28"/>
@@ -15054,16 +15075,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C233" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E233" s="26" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F233" s="27"/>
       <c r="G233" s="28"/>
@@ -15088,16 +15109,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C234" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E234" s="26" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F234" s="27"/>
       <c r="G234" s="28"/>
@@ -15122,16 +15143,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C235" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E235" s="26" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F235" s="27"/>
       <c r="G235" s="28"/>
@@ -15151,21 +15172,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="174" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="24" t="n">
         <v>229</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C236" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E236" s="26" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F236" s="27"/>
       <c r="G236" s="28"/>
@@ -15185,21 +15206,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="24" t="n">
         <v>230</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C237" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E237" s="26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F237" s="27"/>
       <c r="G237" s="28"/>
@@ -15224,16 +15245,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C238" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E238" s="26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F238" s="27"/>
       <c r="G238" s="28"/>
@@ -15253,21 +15274,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="24" t="n">
         <v>232</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C239" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E239" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F239" s="27"/>
       <c r="G239" s="28"/>
@@ -15287,21 +15308,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="24" t="n">
         <v>233</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C240" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E240" s="26" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F240" s="27"/>
       <c r="G240" s="28"/>
@@ -15321,21 +15342,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="24" t="n">
         <v>234</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C241" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E241" s="26" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F241" s="27"/>
       <c r="G241" s="28"/>
@@ -15360,16 +15381,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C242" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E242" s="26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F242" s="27"/>
       <c r="G242" s="28"/>
@@ -15394,16 +15415,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C243" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F243" s="27"/>
       <c r="G243" s="28"/>
@@ -15423,21 +15444,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="24" t="n">
         <v>237</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C244" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E244" s="26" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F244" s="27"/>
       <c r="G244" s="28"/>
@@ -15457,21 +15478,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="24" t="n">
         <v>238</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C245" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E245" s="26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F245" s="27"/>
       <c r="G245" s="28"/>
@@ -15491,21 +15512,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="24" t="n">
         <v>239</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C246" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E246" s="26" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F246" s="27"/>
       <c r="G246" s="28"/>
@@ -15530,16 +15551,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C247" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E247" s="26" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F247" s="27"/>
       <c r="G247" s="28"/>
@@ -15564,16 +15585,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C248" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E248" s="26" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F248" s="27"/>
       <c r="G248" s="28"/>
@@ -15598,16 +15619,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C249" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E249" s="26" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F249" s="27"/>
       <c r="G249" s="28"/>
@@ -15632,16 +15653,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C250" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F250" s="27"/>
       <c r="G250" s="28"/>
@@ -15666,16 +15687,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C251" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E251" s="26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F251" s="27"/>
       <c r="G251" s="28"/>
@@ -15695,21 +15716,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="24" t="n">
         <v>245</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C252" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E252" s="26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F252" s="27"/>
       <c r="G252" s="28"/>
@@ -15729,21 +15750,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="24" t="n">
         <v>246</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E253" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F253" s="27"/>
       <c r="G253" s="28"/>
@@ -15768,16 +15789,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E254" s="26" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F254" s="27"/>
       <c r="G254" s="28"/>
@@ -15797,21 +15818,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="189.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="24" t="n">
         <v>248</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C255" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E255" s="26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F255" s="27"/>
       <c r="G255" s="28"/>
@@ -15831,21 +15852,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="189.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="24" t="n">
         <v>249</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C256" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E256" s="26" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F256" s="27"/>
       <c r="G256" s="28"/>
@@ -15865,21 +15886,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="189.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="24" t="n">
         <v>250</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C257" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E257" s="26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F257" s="27"/>
       <c r="G257" s="28"/>
@@ -15904,16 +15925,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C258" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E258" s="26" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F258" s="27"/>
       <c r="G258" s="28"/>
@@ -15938,16 +15959,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C259" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E259" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F259" s="27"/>
       <c r="G259" s="28"/>
@@ -15972,16 +15993,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C260" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E260" s="26" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F260" s="27"/>
       <c r="G260" s="28"/>
@@ -16001,21 +16022,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="231.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="216.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="24" t="n">
         <v>254</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C261" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E261" s="26" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F261" s="27"/>
       <c r="G261" s="28"/>
@@ -16035,21 +16056,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="231.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="216.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="24" t="n">
         <v>255</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C262" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E262" s="26" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F262" s="27"/>
       <c r="G262" s="28"/>
@@ -16074,16 +16095,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C263" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F263" s="27"/>
       <c r="G263" s="28"/>
@@ -16108,16 +16129,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C264" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E264" s="26" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F264" s="27"/>
       <c r="G264" s="28"/>
@@ -16142,16 +16163,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C265" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E265" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F265" s="27"/>
       <c r="G265" s="28"/>
@@ -16176,16 +16197,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C266" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E266" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F266" s="27"/>
       <c r="G266" s="28"/>
@@ -16210,16 +16231,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C267" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E267" s="26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F267" s="27"/>
       <c r="G267" s="28"/>
@@ -16239,21 +16260,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="24" t="n">
         <v>261</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C268" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E268" s="26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F268" s="27"/>
       <c r="G268" s="28"/>
@@ -16273,21 +16294,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="24" t="n">
         <v>262</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C269" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E269" s="26" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F269" s="27"/>
       <c r="G269" s="28"/>
@@ -16312,16 +16333,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C270" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E270" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F270" s="27"/>
       <c r="G270" s="28"/>
@@ -16341,21 +16362,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="189.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="24" t="n">
         <v>264</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C271" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E271" s="26" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F271" s="27"/>
       <c r="G271" s="28"/>
@@ -16375,21 +16396,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="189.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="24" t="n">
         <v>265</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C272" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E272" s="26" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F272" s="27"/>
       <c r="G272" s="28"/>
@@ -16409,21 +16430,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="202.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="189.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="24" t="n">
         <v>266</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C273" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E273" s="26" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F273" s="27"/>
       <c r="G273" s="28"/>
@@ -16448,16 +16469,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C274" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E274" s="26" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F274" s="27"/>
       <c r="G274" s="28"/>
@@ -16482,16 +16503,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C275" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F275" s="27"/>
       <c r="G275" s="28"/>
@@ -16516,16 +16537,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C276" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E276" s="26" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F276" s="27"/>
       <c r="G276" s="28"/>
@@ -16545,21 +16566,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="231.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="216.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="24" t="n">
         <v>270</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C277" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E277" s="26" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F277" s="27"/>
       <c r="G277" s="28"/>
@@ -16579,21 +16600,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="231.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="216.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="24" t="n">
         <v>271</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C278" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E278" s="26" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F278" s="27"/>
       <c r="G278" s="28"/>
@@ -16618,16 +16639,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C279" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E279" s="26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F279" s="27"/>
       <c r="G279" s="28"/>
@@ -16652,16 +16673,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C280" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E280" s="26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F280" s="27"/>
       <c r="G280" s="28"/>
@@ -16686,16 +16707,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C281" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E281" s="26" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F281" s="27"/>
       <c r="G281" s="28"/>
@@ -16720,16 +16741,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C282" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E282" s="26" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F282" s="27"/>
       <c r="G282" s="28"/>
@@ -16754,16 +16775,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C283" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E283" s="26" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F283" s="27"/>
       <c r="G283" s="28"/>
@@ -16783,21 +16804,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="174" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="24" t="n">
         <v>277</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C284" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E284" s="26" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F284" s="27"/>
       <c r="G284" s="28"/>
@@ -16817,21 +16838,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="24" t="n">
         <v>278</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C285" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E285" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F285" s="27"/>
       <c r="G285" s="28"/>
@@ -16856,16 +16877,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C286" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E286" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F286" s="27"/>
       <c r="G286" s="28"/>
@@ -16885,21 +16906,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="24" t="n">
         <v>280</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C287" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E287" s="26" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F287" s="27"/>
       <c r="G287" s="28"/>
@@ -16919,21 +16940,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="24" t="n">
         <v>281</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C288" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E288" s="26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F288" s="27"/>
       <c r="G288" s="28"/>
@@ -16953,21 +16974,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="24" t="n">
         <v>282</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C289" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E289" s="26" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F289" s="27"/>
       <c r="G289" s="28"/>
@@ -16992,16 +17013,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C290" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E290" s="26" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F290" s="27"/>
       <c r="G290" s="28"/>
@@ -17026,16 +17047,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C291" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E291" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F291" s="27"/>
       <c r="G291" s="28"/>
@@ -17055,21 +17076,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="24" t="n">
         <v>285</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C292" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E292" s="26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F292" s="27"/>
       <c r="G292" s="28"/>
@@ -17089,21 +17110,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="24" t="n">
         <v>286</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C293" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E293" s="26" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F293" s="27"/>
       <c r="G293" s="28"/>
@@ -17123,21 +17144,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="24" t="n">
         <v>287</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C294" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E294" s="26" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F294" s="27"/>
       <c r="G294" s="28"/>
@@ -17162,16 +17183,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C295" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E295" s="26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F295" s="27"/>
       <c r="G295" s="28"/>
@@ -17196,16 +17217,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C296" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E296" s="26" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F296" s="27"/>
       <c r="G296" s="28"/>
@@ -17230,16 +17251,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C297" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E297" s="26" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F297" s="27"/>
       <c r="G297" s="28"/>
@@ -17264,16 +17285,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C298" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E298" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F298" s="27"/>
       <c r="G298" s="28"/>
@@ -17298,16 +17319,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C299" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E299" s="26" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F299" s="27"/>
       <c r="G299" s="28"/>
@@ -17327,21 +17348,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="174" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="24" t="n">
         <v>293</v>
       </c>
       <c r="B300" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C300" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E300" s="26" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F300" s="27"/>
       <c r="G300" s="28"/>
@@ -17361,21 +17382,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="24" t="n">
         <v>294</v>
       </c>
       <c r="B301" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C301" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E301" s="26" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F301" s="27"/>
       <c r="G301" s="28"/>
@@ -17400,16 +17421,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C302" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E302" s="26" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F302" s="27"/>
       <c r="G302" s="28"/>
@@ -17429,21 +17450,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="24" t="n">
         <v>296</v>
       </c>
       <c r="B303" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C303" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E303" s="26" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F303" s="27"/>
       <c r="G303" s="28"/>
@@ -17463,21 +17484,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="24" t="n">
         <v>297</v>
       </c>
       <c r="B304" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C304" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E304" s="26" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F304" s="27"/>
       <c r="G304" s="28"/>
@@ -17497,21 +17518,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="24" t="n">
         <v>298</v>
       </c>
       <c r="B305" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C305" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E305" s="26" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F305" s="27"/>
       <c r="G305" s="28"/>
@@ -17536,16 +17557,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C306" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E306" s="26" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F306" s="27"/>
       <c r="G306" s="28"/>
@@ -17570,16 +17591,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C307" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E307" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F307" s="27"/>
       <c r="G307" s="28"/>
@@ -17599,21 +17620,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="24" t="n">
         <v>301</v>
       </c>
       <c r="B308" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C308" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E308" s="26" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F308" s="27"/>
       <c r="G308" s="28"/>
@@ -17633,21 +17654,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="24" t="n">
         <v>302</v>
       </c>
       <c r="B309" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C309" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E309" s="26" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F309" s="27"/>
       <c r="G309" s="28"/>
@@ -17667,21 +17688,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="24" t="n">
         <v>303</v>
       </c>
       <c r="B310" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C310" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E310" s="26" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F310" s="27"/>
       <c r="G310" s="28"/>
@@ -17706,16 +17727,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C311" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E311" s="26" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F311" s="27"/>
       <c r="G311" s="28"/>
@@ -17740,16 +17761,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C312" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E312" s="26" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F312" s="27"/>
       <c r="G312" s="28"/>
@@ -17774,16 +17795,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C313" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E313" s="26" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F313" s="27"/>
       <c r="G313" s="28"/>
@@ -17808,16 +17829,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C314" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E314" s="26" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F314" s="27"/>
       <c r="G314" s="28"/>
@@ -17842,16 +17863,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C315" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E315" s="26" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F315" s="27"/>
       <c r="G315" s="28"/>
@@ -17871,21 +17892,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="174" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="24" t="n">
         <v>309</v>
       </c>
       <c r="B316" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C316" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E316" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F316" s="27"/>
       <c r="G316" s="28"/>
@@ -17905,21 +17926,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="24" t="n">
         <v>310</v>
       </c>
       <c r="B317" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C317" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E317" s="26" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F317" s="27"/>
       <c r="G317" s="28"/>
@@ -17944,16 +17965,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C318" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E318" s="26" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F318" s="27"/>
       <c r="G318" s="28"/>
@@ -17973,21 +17994,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="24" t="n">
         <v>312</v>
       </c>
       <c r="B319" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C319" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E319" s="26" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F319" s="27"/>
       <c r="G319" s="28"/>
@@ -18007,21 +18028,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="24" t="n">
         <v>313</v>
       </c>
       <c r="B320" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C320" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E320" s="26" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F320" s="27"/>
       <c r="G320" s="28"/>
@@ -18041,21 +18062,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="188.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="176.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="24" t="n">
         <v>314</v>
       </c>
       <c r="B321" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C321" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D321" s="25" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E321" s="26" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F321" s="27"/>
       <c r="G321" s="28"/>
@@ -18080,16 +18101,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C322" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D322" s="25" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E322" s="26" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F322" s="27"/>
       <c r="G322" s="28"/>
@@ -18114,16 +18135,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C323" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D323" s="25" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E323" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F323" s="27"/>
       <c r="G323" s="28"/>
@@ -18143,21 +18164,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="24" t="n">
         <v>317</v>
       </c>
       <c r="B324" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C324" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E324" s="26" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F324" s="27"/>
       <c r="G324" s="28"/>
@@ -18177,21 +18198,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="24" t="n">
         <v>318</v>
       </c>
       <c r="B325" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C325" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D325" s="25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E325" s="26" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F325" s="27"/>
       <c r="G325" s="28"/>
@@ -18211,21 +18232,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="217.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="24" t="n">
         <v>319</v>
       </c>
       <c r="B326" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C326" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E326" s="26" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F326" s="27"/>
       <c r="G326" s="28"/>
@@ -18250,16 +18271,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C327" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="25" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E327" s="26" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F327" s="27"/>
       <c r="G327" s="28"/>
@@ -18284,16 +18305,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C328" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="25" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E328" s="26" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F328" s="27"/>
       <c r="G328" s="28"/>
@@ -18318,16 +18339,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C329" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="25" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E329" s="26" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F329" s="27"/>
       <c r="G329" s="28"/>
@@ -18352,16 +18373,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C330" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="25" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E330" s="26" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F330" s="27"/>
       <c r="G330" s="28"/>
@@ -18386,16 +18407,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C331" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D331" s="25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E331" s="26" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F331" s="27"/>
       <c r="G331" s="28"/>
@@ -18420,16 +18441,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C332" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D332" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E332" s="26" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F332" s="27"/>
       <c r="G332" s="28"/>
@@ -18454,16 +18475,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C333" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D333" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E333" s="26" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F333" s="27"/>
       <c r="G333" s="28"/>
@@ -18488,16 +18509,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C334" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D334" s="25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E334" s="26" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F334" s="27"/>
       <c r="G334" s="28"/>
@@ -18522,16 +18543,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C335" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D335" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E335" s="26" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F335" s="27"/>
       <c r="G335" s="28"/>
@@ -18556,16 +18577,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C336" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D336" s="25" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E336" s="26" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F336" s="27"/>
       <c r="G336" s="28"/>
@@ -18590,16 +18611,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C337" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D337" s="25" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E337" s="26" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F337" s="27"/>
       <c r="G337" s="28"/>
@@ -18624,16 +18645,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C338" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D338" s="25" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E338" s="26" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F338" s="27"/>
       <c r="G338" s="28"/>
@@ -18658,16 +18679,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C339" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D339" s="25" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E339" s="26" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F339" s="27"/>
       <c r="G339" s="28"/>
@@ -18692,16 +18713,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C340" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D340" s="25" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E340" s="26" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F340" s="27"/>
       <c r="G340" s="28"/>
@@ -18726,16 +18747,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C341" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D341" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E341" s="26" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F341" s="27"/>
       <c r="G341" s="28"/>
@@ -18760,16 +18781,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C342" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D342" s="25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E342" s="26" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F342" s="27"/>
       <c r="G342" s="28"/>
@@ -18794,16 +18815,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C343" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D343" s="25" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E343" s="26" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F343" s="27"/>
       <c r="G343" s="28"/>
@@ -18828,16 +18849,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C344" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E344" s="26" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F344" s="27"/>
       <c r="G344" s="28"/>
@@ -18862,16 +18883,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C345" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D345" s="25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E345" s="26" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F345" s="27"/>
       <c r="G345" s="28"/>
@@ -18896,16 +18917,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C346" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D346" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E346" s="26" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F346" s="27"/>
       <c r="G346" s="28"/>
@@ -18930,16 +18951,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C347" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E347" s="26" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F347" s="27"/>
       <c r="G347" s="28"/>
@@ -18964,16 +18985,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C348" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D348" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E348" s="26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F348" s="27"/>
       <c r="G348" s="28"/>
@@ -18998,16 +19019,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C349" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E349" s="26" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F349" s="27"/>
       <c r="G349" s="28"/>
@@ -19032,16 +19053,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C350" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E350" s="26" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F350" s="27"/>
       <c r="G350" s="28"/>
@@ -19066,16 +19087,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C351" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D351" s="25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E351" s="26" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F351" s="27"/>
       <c r="G351" s="28"/>
@@ -19100,16 +19121,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C352" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E352" s="26" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F352" s="27"/>
       <c r="G352" s="28"/>
@@ -19134,16 +19155,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C353" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E353" s="26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F353" s="27"/>
       <c r="G353" s="28"/>
@@ -19168,16 +19189,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C354" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D354" s="25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E354" s="26" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F354" s="27"/>
       <c r="G354" s="28"/>
@@ -19202,16 +19223,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C355" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D355" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E355" s="26" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F355" s="27"/>
       <c r="G355" s="28"/>
@@ -19236,16 +19257,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C356" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D356" s="25" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E356" s="26" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F356" s="27"/>
       <c r="G356" s="28"/>
@@ -19270,16 +19291,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C357" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E357" s="26" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F357" s="27"/>
       <c r="G357" s="28"/>
@@ -19304,16 +19325,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C358" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D358" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E358" s="26" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F358" s="27"/>
       <c r="G358" s="28"/>
@@ -19338,16 +19359,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C359" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E359" s="26" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F359" s="27"/>
       <c r="G359" s="28"/>
@@ -19372,16 +19393,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C360" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E360" s="26" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F360" s="27"/>
       <c r="G360" s="28"/>
@@ -19406,16 +19427,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C361" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E361" s="26" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F361" s="27"/>
       <c r="G361" s="28"/>
@@ -19440,16 +19461,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C362" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D362" s="25" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E362" s="26" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F362" s="27"/>
       <c r="G362" s="28"/>
@@ -19474,16 +19495,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C363" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E363" s="26" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F363" s="27"/>
       <c r="G363" s="28"/>
@@ -19508,16 +19529,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C364" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D364" s="25" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E364" s="26" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F364" s="27"/>
       <c r="G364" s="28"/>
@@ -19542,16 +19563,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C365" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E365" s="26" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F365" s="27"/>
       <c r="G365" s="28"/>
@@ -19576,16 +19597,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C366" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D366" s="25" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E366" s="26" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F366" s="27"/>
       <c r="G366" s="28"/>
@@ -19610,16 +19631,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C367" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D367" s="25" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E367" s="26" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F367" s="27"/>
       <c r="G367" s="28"/>
@@ -19644,16 +19665,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C368" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D368" s="25" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E368" s="26" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F368" s="27"/>
       <c r="G368" s="28"/>
@@ -19678,16 +19699,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C369" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E369" s="26" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F369" s="27"/>
       <c r="G369" s="28"/>
@@ -19712,16 +19733,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C370" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D370" s="25" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E370" s="26" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F370" s="27"/>
       <c r="G370" s="28"/>
@@ -19746,16 +19767,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C371" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D371" s="25" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E371" s="26" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F371" s="27"/>
       <c r="G371" s="28"/>
@@ -19780,16 +19801,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C372" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D372" s="25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E372" s="26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F372" s="27"/>
       <c r="G372" s="28"/>
@@ -19814,16 +19835,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C373" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D373" s="25" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E373" s="26" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F373" s="27"/>
       <c r="G373" s="28"/>
@@ -19848,16 +19869,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C374" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E374" s="26" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F374" s="27"/>
       <c r="G374" s="28"/>
@@ -19888,10 +19909,10 @@
         <v>49</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E375" s="26" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F375" s="27"/>
       <c r="G375" s="28"/>
@@ -19911,7 +19932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="130.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="24" t="n">
         <v>369</v>
       </c>
@@ -19922,10 +19943,10 @@
         <v>61</v>
       </c>
       <c r="D376" s="25" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E376" s="26" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F376" s="27"/>
       <c r="G376" s="28"/>
@@ -19945,7 +19966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="24" t="n">
         <v>370</v>
       </c>
@@ -19956,22 +19977,22 @@
         <v>70</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E377" s="26" t="s">
-        <v>832</v>
-      </c>
-      <c r="F377" s="27" t="n">
-        <v>45125</v>
+        <v>833</v>
+      </c>
+      <c r="F377" s="34" t="n">
+        <v>45135</v>
       </c>
       <c r="G377" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H377" s="28" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="I377" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J377" s="29" t="s">
         <v>76</v>
@@ -20000,10 +20021,10 @@
         <v>88</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E378" s="26" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F378" s="27"/>
       <c r="G378" s="28"/>
@@ -20034,10 +20055,10 @@
         <v>97</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E379" s="26" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F379" s="27"/>
       <c r="G379" s="28"/>
@@ -20068,10 +20089,10 @@
         <v>106</v>
       </c>
       <c r="D380" s="25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E380" s="26" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F380" s="27"/>
       <c r="G380" s="28"/>
@@ -20102,10 +20123,10 @@
         <v>127</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E381" s="26" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F381" s="27"/>
       <c r="G381" s="28"/>
@@ -20136,10 +20157,10 @@
         <v>119</v>
       </c>
       <c r="D382" s="25" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E382" s="26" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F382" s="27"/>
       <c r="G382" s="28"/>
@@ -20170,10 +20191,10 @@
         <v>49</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E383" s="26" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F383" s="27"/>
       <c r="G383" s="28"/>
@@ -24901,7 +24922,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.91"/>
@@ -24918,10 +24939,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24929,13 +24950,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C2" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>852</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24943,13 +24964,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="D3" s="36" t="s">
+        <v>851</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>854</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24957,13 +24978,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>855</v>
-      </c>
-      <c r="D4" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>856</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24971,13 +24992,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>857</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>851</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>858</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24985,13 +25006,13 @@
         <v>97</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>859</v>
-      </c>
-      <c r="D6" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>860</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24999,13 +25020,13 @@
         <v>106</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>861</v>
-      </c>
-      <c r="D7" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>862</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25013,13 +25034,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>863</v>
-      </c>
-      <c r="D8" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>864</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25027,27 +25048,27 @@
         <v>119</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>865</v>
-      </c>
-      <c r="D9" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>866</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>868</v>
-      </c>
-      <c r="D10" s="36" t="s">
+        <v>851</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>869</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25055,13 +25076,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C11" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>871</v>
+      <c r="D11" s="38" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25069,13 +25090,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C12" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>872</v>
+      <c r="D12" s="38" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25083,13 +25104,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C13" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>873</v>
+      <c r="D13" s="39" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25097,13 +25118,13 @@
         <v>88</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C14" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>874</v>
+      <c r="D14" s="38" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25111,13 +25132,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C15" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>875</v>
+      <c r="D15" s="39" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25125,13 +25146,13 @@
         <v>106</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C16" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>876</v>
+      <c r="D16" s="39" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25139,13 +25160,13 @@
         <v>127</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C17" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>877</v>
+      <c r="D17" s="39" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25153,13 +25174,13 @@
         <v>119</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C18" s="36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>878</v>
+      <c r="D18" s="39" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25167,13 +25188,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C19" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>880</v>
+      <c r="D19" s="38" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25181,13 +25202,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C20" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>881</v>
+      <c r="D20" s="38" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25195,13 +25216,13 @@
         <v>70</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C21" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>882</v>
+      <c r="D21" s="39" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25209,13 +25230,13 @@
         <v>88</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C22" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>883</v>
+      <c r="D22" s="38" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25223,13 +25244,13 @@
         <v>97</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C23" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>884</v>
+      <c r="D23" s="39" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25237,13 +25258,13 @@
         <v>106</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C24" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>885</v>
+      <c r="D24" s="39" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25251,13 +25272,13 @@
         <v>127</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C25" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="37" t="s">
-        <v>886</v>
+      <c r="D25" s="39" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25265,13 +25286,13 @@
         <v>119</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C26" s="36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>887</v>
+      <c r="D26" s="39" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25279,13 +25300,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C27" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>889</v>
+      <c r="D27" s="38" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25293,13 +25314,13 @@
         <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C28" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>890</v>
+      <c r="D28" s="38" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25307,13 +25328,13 @@
         <v>70</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C29" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>891</v>
+      <c r="D29" s="40" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25321,13 +25342,13 @@
         <v>88</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C30" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>892</v>
+      <c r="D30" s="38" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25335,13 +25356,13 @@
         <v>97</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C31" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>893</v>
+      <c r="D31" s="39" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25349,13 +25370,13 @@
         <v>106</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C32" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>894</v>
+      <c r="D32" s="39" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25363,13 +25384,13 @@
         <v>127</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C33" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>895</v>
+      <c r="D33" s="39" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25377,13 +25398,13 @@
         <v>119</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C34" s="36" t="n">
+        <v>889</v>
+      </c>
+      <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>896</v>
+      <c r="D34" s="39" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25391,12 +25412,12 @@
         <v>49</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C35" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C35" s="38" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="36" t="n">
+      <c r="D35" s="38" t="n">
         <v>204</v>
       </c>
     </row>
@@ -25405,12 +25426,12 @@
         <v>61</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C36" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C36" s="38" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="36" t="n">
+      <c r="D36" s="38" t="n">
         <v>220</v>
       </c>
     </row>
@@ -25419,12 +25440,12 @@
         <v>70</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C37" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C37" s="38" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="37" t="n">
+      <c r="D37" s="39" t="n">
         <v>236</v>
       </c>
     </row>
@@ -25433,12 +25454,12 @@
         <v>88</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C38" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C38" s="38" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="36" t="n">
+      <c r="D38" s="38" t="n">
         <v>252</v>
       </c>
     </row>
@@ -25447,12 +25468,12 @@
         <v>97</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C39" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C39" s="38" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="37" t="n">
+      <c r="D39" s="39" t="n">
         <v>268</v>
       </c>
     </row>
@@ -25461,12 +25482,12 @@
         <v>106</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C40" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C40" s="38" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="37" t="n">
+      <c r="D40" s="39" t="n">
         <v>284</v>
       </c>
     </row>
@@ -25475,12 +25496,12 @@
         <v>127</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C41" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C41" s="38" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="37" t="n">
+      <c r="D41" s="39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -25489,12 +25510,12 @@
         <v>119</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C42" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="C42" s="38" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="37" t="n">
+      <c r="D42" s="39" t="n">
         <v>316</v>
       </c>
     </row>
@@ -25503,12 +25524,12 @@
         <v>49</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C43" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C43" s="38" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="36" t="n">
+      <c r="D43" s="38" t="n">
         <v>207</v>
       </c>
     </row>
@@ -25517,12 +25538,12 @@
         <v>61</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C44" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C44" s="38" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="36" t="n">
+      <c r="D44" s="38" t="n">
         <v>223</v>
       </c>
     </row>
@@ -25531,12 +25552,12 @@
         <v>70</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C45" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C45" s="38" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="37" t="n">
+      <c r="D45" s="39" t="n">
         <v>239</v>
       </c>
     </row>
@@ -25545,12 +25566,12 @@
         <v>88</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C46" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C46" s="38" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="36" t="n">
+      <c r="D46" s="38" t="n">
         <v>255</v>
       </c>
     </row>
@@ -25559,12 +25580,12 @@
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C47" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C47" s="38" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="37" t="n">
+      <c r="D47" s="39" t="n">
         <v>271</v>
       </c>
     </row>
@@ -25573,12 +25594,12 @@
         <v>106</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C48" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C48" s="38" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="37" t="n">
+      <c r="D48" s="39" t="n">
         <v>287</v>
       </c>
     </row>
@@ -25587,12 +25608,12 @@
         <v>127</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C49" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C49" s="38" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="37" t="n">
+      <c r="D49" s="39" t="n">
         <v>303</v>
       </c>
     </row>
@@ -25601,12 +25622,12 @@
         <v>119</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C50" s="36" t="n">
+        <v>899</v>
+      </c>
+      <c r="C50" s="38" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="37" t="n">
+      <c r="D50" s="39" t="n">
         <v>319</v>
       </c>
     </row>
@@ -26582,7 +26603,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>
@@ -26590,32 +26611,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>899</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="41" t="s">
+        <v>900</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>900</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="41" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
+++ b/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
@@ -379,13 +379,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-28T09:56:49Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b2ae46c0d2ac4c3c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.26a6c1f1a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-31T12:04:13Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e68c3c8c5ba061a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.35d16048ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -399,13 +399,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-28T10:00:49Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">940293578432bba8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.d53ce1a769^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-31T12:06:41Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b35485cae8e9515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.9cbe71424e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -3971,13 +3971,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-28T10:57:20Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3129a3d73b218bf9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.5b34df11aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-31T12:14:53Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376318117586691b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.16.840.1.113883.2.9.2.99999.44352a89d504ba5c1ec89fe29c03a20bcaa83376cd7d9816db52b5a5c592f7a0.fd080e4c5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT0</t>
@@ -4194,12 +4194,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4260,12 +4261,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4416,7 +4411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4549,24 +4544,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4719,7 +4710,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -5793,7 +5784,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -6898,13 +6889,13 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="F82" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
-      <selection pane="topRight" activeCell="H46" activeCellId="0" sqref="H46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="F7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -7477,15 +7468,15 @@
         <v>72</v>
       </c>
       <c r="F19" s="27" t="n">
-        <v>45135</v>
-      </c>
-      <c r="G19" s="14" t="s">
+        <v>45138</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="34" t="s">
         <v>75</v>
       </c>
       <c r="J19" s="29" t="s">
@@ -7520,8 +7511,8 @@
       <c r="E20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="34" t="n">
-        <v>45135</v>
+      <c r="F20" s="27" t="n">
+        <v>45138</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>79</v>
@@ -8150,7 +8141,7 @@
       <c r="E38" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="34" t="n">
+      <c r="F38" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G38" s="28" t="s">
@@ -8442,7 +8433,7 @@
       <c r="E46" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="34" t="n">
+      <c r="F46" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -8740,10 +8731,10 @@
       <c r="E54" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="34" t="n">
+      <c r="F54" s="27" t="n">
         <v>45135</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="28" t="s">
         <v>148</v>
       </c>
       <c r="H54" s="28"/>
@@ -9716,7 +9707,7 @@
       <c r="E82" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F82" s="34" t="n">
+      <c r="F82" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G82" s="28" t="s">
@@ -9770,7 +9761,7 @@
       <c r="E83" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="F83" s="34" t="n">
+      <c r="F83" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G83" s="28" t="s">
@@ -9824,7 +9815,7 @@
       <c r="E84" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F84" s="34" t="n">
+      <c r="F84" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G84" s="28" t="s">
@@ -9878,7 +9869,7 @@
       <c r="E85" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F85" s="34" t="n">
+      <c r="F85" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G85" s="28" t="s">
@@ -9932,7 +9923,7 @@
       <c r="E86" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F86" s="34" t="n">
+      <c r="F86" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G86" s="28" t="s">
@@ -9986,7 +9977,7 @@
       <c r="E87" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="F87" s="34" t="n">
+      <c r="F87" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G87" s="28" t="s">
@@ -10078,7 +10069,7 @@
       <c r="E89" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="F89" s="34" t="n">
+      <c r="F89" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G89" s="28" t="s">
@@ -10132,7 +10123,7 @@
       <c r="E90" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="F90" s="34" t="n">
+      <c r="F90" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G90" s="28" t="s">
@@ -10186,7 +10177,7 @@
       <c r="E91" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="F91" s="34" t="n">
+      <c r="F91" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G91" s="28" t="s">
@@ -10240,7 +10231,7 @@
       <c r="E92" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F92" s="34" t="n">
+      <c r="F92" s="27" t="n">
         <v>45135</v>
       </c>
       <c r="G92" s="28" t="s">
@@ -19982,8 +19973,8 @@
       <c r="E377" s="26" t="s">
         <v>833</v>
       </c>
-      <c r="F377" s="34" t="n">
-        <v>45135</v>
+      <c r="F377" s="27" t="n">
+        <v>45138</v>
       </c>
       <c r="G377" s="28" t="s">
         <v>834</v>
@@ -24922,7 +24913,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.91"/>
@@ -24952,10 +24943,10 @@
       <c r="B2" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>852</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>853</v>
       </c>
     </row>
@@ -24966,10 +24957,10 @@
       <c r="B3" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>855</v>
       </c>
     </row>
@@ -24980,10 +24971,10 @@
       <c r="B4" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>856</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>857</v>
       </c>
     </row>
@@ -24994,10 +24985,10 @@
       <c r="B5" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>858</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>859</v>
       </c>
     </row>
@@ -25008,10 +24999,10 @@
       <c r="B6" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>860</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>861</v>
       </c>
     </row>
@@ -25022,10 +25013,10 @@
       <c r="B7" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>863</v>
       </c>
     </row>
@@ -25036,10 +25027,10 @@
       <c r="B8" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>864</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>865</v>
       </c>
     </row>
@@ -25050,10 +25041,10 @@
       <c r="B9" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>867</v>
       </c>
     </row>
@@ -25064,10 +25055,10 @@
       <c r="B10" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>869</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>870</v>
       </c>
     </row>
@@ -25078,10 +25069,10 @@
       <c r="B11" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C11" s="38" t="n">
+      <c r="C11" s="37" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>872</v>
       </c>
     </row>
@@ -25092,10 +25083,10 @@
       <c r="B12" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C12" s="38" t="n">
+      <c r="C12" s="37" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>873</v>
       </c>
     </row>
@@ -25106,10 +25097,10 @@
       <c r="B13" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C13" s="38" t="n">
+      <c r="C13" s="37" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>874</v>
       </c>
     </row>
@@ -25120,10 +25111,10 @@
       <c r="B14" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C14" s="38" t="n">
+      <c r="C14" s="37" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>875</v>
       </c>
     </row>
@@ -25134,10 +25125,10 @@
       <c r="B15" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C15" s="38" t="n">
+      <c r="C15" s="37" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>876</v>
       </c>
     </row>
@@ -25148,10 +25139,10 @@
       <c r="B16" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="37" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>877</v>
       </c>
     </row>
@@ -25162,10 +25153,10 @@
       <c r="B17" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C17" s="38" t="n">
+      <c r="C17" s="37" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>878</v>
       </c>
     </row>
@@ -25176,10 +25167,10 @@
       <c r="B18" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C18" s="38" t="n">
+      <c r="C18" s="37" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>879</v>
       </c>
     </row>
@@ -25190,10 +25181,10 @@
       <c r="B19" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="37" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>881</v>
       </c>
     </row>
@@ -25204,10 +25195,10 @@
       <c r="B20" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="37" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>882</v>
       </c>
     </row>
@@ -25218,10 +25209,10 @@
       <c r="B21" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C21" s="38" t="n">
+      <c r="C21" s="37" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>883</v>
       </c>
     </row>
@@ -25232,10 +25223,10 @@
       <c r="B22" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C22" s="38" t="n">
+      <c r="C22" s="37" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>884</v>
       </c>
     </row>
@@ -25246,10 +25237,10 @@
       <c r="B23" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="37" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>885</v>
       </c>
     </row>
@@ -25260,10 +25251,10 @@
       <c r="B24" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="37" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>886</v>
       </c>
     </row>
@@ -25274,10 +25265,10 @@
       <c r="B25" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C25" s="38" t="n">
+      <c r="C25" s="37" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>887</v>
       </c>
     </row>
@@ -25288,10 +25279,10 @@
       <c r="B26" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C26" s="38" t="n">
+      <c r="C26" s="37" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>888</v>
       </c>
     </row>
@@ -25302,10 +25293,10 @@
       <c r="B27" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="37" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>890</v>
       </c>
     </row>
@@ -25316,10 +25307,10 @@
       <c r="B28" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C28" s="38" t="n">
+      <c r="C28" s="37" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="37" t="s">
         <v>891</v>
       </c>
     </row>
@@ -25330,10 +25321,10 @@
       <c r="B29" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C29" s="38" t="n">
+      <c r="C29" s="37" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="39" t="s">
         <v>892</v>
       </c>
     </row>
@@ -25344,10 +25335,10 @@
       <c r="B30" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C30" s="38" t="n">
+      <c r="C30" s="37" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>893</v>
       </c>
     </row>
@@ -25358,10 +25349,10 @@
       <c r="B31" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C31" s="38" t="n">
+      <c r="C31" s="37" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>894</v>
       </c>
     </row>
@@ -25372,10 +25363,10 @@
       <c r="B32" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C32" s="38" t="n">
+      <c r="C32" s="37" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>895</v>
       </c>
     </row>
@@ -25386,10 +25377,10 @@
       <c r="B33" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C33" s="38" t="n">
+      <c r="C33" s="37" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>896</v>
       </c>
     </row>
@@ -25400,10 +25391,10 @@
       <c r="B34" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="C34" s="38" t="n">
+      <c r="C34" s="37" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>897</v>
       </c>
     </row>
@@ -25414,10 +25405,10 @@
       <c r="B35" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C35" s="38" t="n">
+      <c r="C35" s="37" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="37" t="n">
         <v>204</v>
       </c>
     </row>
@@ -25428,10 +25419,10 @@
       <c r="B36" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C36" s="38" t="n">
+      <c r="C36" s="37" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="37" t="n">
         <v>220</v>
       </c>
     </row>
@@ -25442,10 +25433,10 @@
       <c r="B37" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C37" s="38" t="n">
+      <c r="C37" s="37" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="38" t="n">
         <v>236</v>
       </c>
     </row>
@@ -25456,10 +25447,10 @@
       <c r="B38" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C38" s="38" t="n">
+      <c r="C38" s="37" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="37" t="n">
         <v>252</v>
       </c>
     </row>
@@ -25470,10 +25461,10 @@
       <c r="B39" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C39" s="38" t="n">
+      <c r="C39" s="37" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="38" t="n">
         <v>268</v>
       </c>
     </row>
@@ -25484,10 +25475,10 @@
       <c r="B40" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C40" s="38" t="n">
+      <c r="C40" s="37" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="38" t="n">
         <v>284</v>
       </c>
     </row>
@@ -25498,10 +25489,10 @@
       <c r="B41" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C41" s="38" t="n">
+      <c r="C41" s="37" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="38" t="n">
         <v>300</v>
       </c>
     </row>
@@ -25512,10 +25503,10 @@
       <c r="B42" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C42" s="38" t="n">
+      <c r="C42" s="37" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="38" t="n">
         <v>316</v>
       </c>
     </row>
@@ -25526,10 +25517,10 @@
       <c r="B43" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C43" s="38" t="n">
+      <c r="C43" s="37" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="37" t="n">
         <v>207</v>
       </c>
     </row>
@@ -25540,10 +25531,10 @@
       <c r="B44" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C44" s="38" t="n">
+      <c r="C44" s="37" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="37" t="n">
         <v>223</v>
       </c>
     </row>
@@ -25554,10 +25545,10 @@
       <c r="B45" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C45" s="38" t="n">
+      <c r="C45" s="37" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="38" t="n">
         <v>239</v>
       </c>
     </row>
@@ -25568,10 +25559,10 @@
       <c r="B46" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C46" s="38" t="n">
+      <c r="C46" s="37" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="37" t="n">
         <v>255</v>
       </c>
     </row>
@@ -25582,10 +25573,10 @@
       <c r="B47" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C47" s="38" t="n">
+      <c r="C47" s="37" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="38" t="n">
         <v>271</v>
       </c>
     </row>
@@ -25596,10 +25587,10 @@
       <c r="B48" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C48" s="38" t="n">
+      <c r="C48" s="37" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="38" t="n">
         <v>287</v>
       </c>
     </row>
@@ -25610,10 +25601,10 @@
       <c r="B49" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C49" s="38" t="n">
+      <c r="C49" s="37" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="38" t="n">
         <v>303</v>
       </c>
     </row>
@@ -25624,10 +25615,10 @@
       <c r="B50" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="C50" s="38" t="n">
+      <c r="C50" s="37" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="38" t="n">
         <v>319</v>
       </c>
     </row>
@@ -26603,7 +26594,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>
@@ -26611,32 +26602,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>901</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
+++ b/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
@@ -379,13 +379,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-31T12:04:13Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e68c3c8c5ba061a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.35d16048ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-08-01T09:30:57Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48c68cf29d03bb0d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.f7f48ec24e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -399,13 +399,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-31T12:06:41Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4b35485cae8e9515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.9cbe71424e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-08-01T09:37:02Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48c678f71be069fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.99999.794d23f121b3a3803b7bd202128e298410c49b59b5d7ad680bc56318a5ff53cb.bb9e8e1a65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -4710,7 +4710,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -5784,7 +5784,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -6889,13 +6889,13 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="F7" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="topRight" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -7468,7 +7468,7 @@
         <v>72</v>
       </c>
       <c r="F19" s="27" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>73</v>
@@ -7512,7 +7512,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="27" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>79</v>
@@ -24913,7 +24913,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.91"/>
@@ -26594,7 +26594,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>

--- a/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
+++ b/GATEWAY/A1#111GEHEALTHCARE/GEMSI/CENTRICITYRIS/7/report_checklist.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="916">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4153,66 +4153,69 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma  nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. 
+    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:comune di residenza)</t>
+  </si>
+  <si>
+    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:CF  non valido)</t>
+  </si>
+  <si>
+    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:nome assente)</t>
+  </si>
+  <si>
+    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:codice sesso)</t>
+  </si>
+  <si>
+    <t>Errore semantico durante la validazione del CDA2 ( codice priorità)</t>
+  </si>
+  <si>
+    <t>Errore sintattico durante la validazione del CDA2 (mancanza prescrizione)</t>
+  </si>
+  <si>
+    <t>Errore sintattico durante la validazione del CDA2 (esame eseguito:mancanza codice esame)</t>
+  </si>
+  <si>
+    <t>Errore sintattico durante la validazione del CDA2 (referto: mancanza parametri)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il cliente avrà evidenza dell'errore di validazione prima del processo di firma . Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provvederà a correggere l’errore nella creazione del JWT e ad effettuare il deploy in produzione per permettere la corretta comunicazione con il gateway e quindi la validazione del CDA2. Il cliente potrà proseguire con la firma digitale del referto. </t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del  processo di firma . Aprirà una segnalazione al service desk per problemi di validazione. 
 Il service desk provvederà a correggere l’errore nella creazione del JWT e ad effettuare il deploy in produzione per permettere la corretta validazione del CDA2.
  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il cliente avrà evidenza dell'errore durante il processo di firma nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provvederà a correggere l’errore nella creazione del JWT e ad effettuare il deploy in produzione per permettere la corretta comunicazione con il gateway e quindi la validazione del CDA2. Il cliente potrà proseguire con la firma digitale del referto. </t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema dei parametri del paziente indicato nel messaggio di errore, in questo caso correggendo il CF, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso la mancanza del nome del paziente,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:comune di residenza)</t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso la mancanza del comune di residenza,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:CF  non valido)</t>
-  </si>
-  <si>
-    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:nome assente)</t>
-  </si>
-  <si>
-    <t>Errore semantico durante la validazione del CDA2 (parametri paziente:codice sesso)</t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso incoerenza del codice relativo al sesso,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso alla incoerenza del codice relativo alla priorità, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>Errore semantico durante la validazione del CDA2 ( codice priorità)</t>
-  </si>
-  <si>
-    <t>Errore sintattico durante la validazione del CDA2 (mancanza prescrizione)</t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza dell'identificativo della prescrizione, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>Errore sintattico durante la validazione del CDA2 (esame eseguito:mancanza codice esame)</t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza del codice dell'esame, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>Errore sintattico durante la validazione del CDA2 (referto: mancanza parametri)</t>
-  </si>
-  <si>
-    <t>Il cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza di parametri obbligatori nella sezione REFERTO , per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
-  </si>
-  <si>
-    <t>l cliente avrà evidenza dell'errore durante il processo di firma e nella pagina dei documenti firmati, che si apre automaticamente dopo la firma.Il sistema gestirà in autonomia i tentativi di invio, inserendo il documento in una specifica coda che avrà una ricorsione di invio in base ad un definito intervallo temporale. Nel frattempo il cliente comunicherà il problema al service desk, che  si farà carico esclusivamente  di monitorare la situazione,  fin quando che il problema non sarà risolto. Quindi,  comunicherà la soluzione del problema al cliente che potrà procedere con la firma del documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il cliente avrà evidenza dell'errore durante il processo di firma nella pagina dei documenti firmati, che si apre automaticamente dopo la firma. Aprirà una segnalazione al service desk per problemi durante la fase di firma. Il service desk per risolvere il problema dovrà reperire le informazioni sul parametro di riservatezza dall'applicativo RIS, dove questo parametro é obbligatorio. In caso di mancanza di questa informazione sull'applicativo, farà riferimento al medico. Nel caso in cui l'informazione sarà reperita,  provvederà a risolvere il problema per permettere la creazione di un CDA2 valido. In caso contrario il documento non sarà processabile finché l'informazione non sarà reperita. </t>
+    <t xml:space="preserve">Il cliente avrà evidenza dell'errore di validazione prima del processo di firma e  aprirà una segnalazione al service desk. Il service desk per risolvere il problema dovrà reperire le informazioni sul parametro di riservatezza dall'applicativo RIS, dove questo parametro é obbligatorio. In caso di mancanza di questa informazione sull'applicativo, farà riferimento al medico. Nel caso in cui l'informazione sarà reperita,  provvederà a risolvere il problema per permettere la creazione di un CDA2 valido. In caso contrario il documento non sarà processabile finché l'informazione non sarà reperita. </t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma e  aprirà una segnalazione al service desk. Il service desk provederà a risolvere il problema dei parametri del paziente indicato nel messaggio di errore, in questo caso correggendo il CF, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il cliente avrà evidenza dell'errore di validazione prima del processo di firma.Aprirà una segnalazione al service desk per problemi di validazione. Il service desk per risolvere il problema dovrà reperire le informazioni sul parametro di riservatezza dall'applicativo RIS, dove questo parametro é obbligatorio. In caso di mancanza di questa informazione sull'applicativo, farà riferimento al medico. Nel caso in cui l'informazione sarà reperita,  provvederà a risolvere il problema per permettere la creazione di un CDA2 valido. In caso contrario il documento non sarà processabile finché l'informazione non sarà reperita. </t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi  di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso la mancanza del comune di residenza,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione . Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso incoerenza del codice relativo al sesso,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso la mancanza del nome del paziente,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso alla incoerenza del codice relativo alla priorità, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza dell'identificativo della prescrizione, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza del codice dell'esame, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza di parametri obbligatori nella sezione REFERTO , per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
+  </si>
+  <si>
+    <t>Il cliente avrà evidenza dell'errore di validazione prima del processo di firma .Il sistema gestirà in autonomia i tentativi di invio, inserendo il documento in una specifica coda che avrà una ricorsione di invio in base ad un definito intervallo temporale. Nel frattempo il cliente comunicherà il problema di validazione al service desk, che  si farà carico esclusivamente  di monitorare la situazione,  fin quando che il problema non sarà risolto. Quindi,  comunicherà la soluzione del problema al cliente che potrà procedere con la firma del documento</t>
   </si>
 </sst>
 </file>
@@ -7127,9 +7130,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8362,7 +8365,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>31</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>76</v>
       </c>
       <c r="P38" s="37" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -8654,7 +8657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
         <v>39</v>
       </c>
@@ -8699,7 +8702,7 @@
         <v>76</v>
       </c>
       <c r="P46" s="37" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
@@ -8952,7 +8955,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="319" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="290" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
         <v>47</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v>76</v>
       </c>
       <c r="P54" s="37" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="Q54" s="25"/>
       <c r="R54" s="26"/>
@@ -9928,7 +9931,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="377" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
         <v>75</v>
       </c>
@@ -9973,7 +9976,7 @@
         <v>76</v>
       </c>
       <c r="P82" s="37" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="Q82" s="25"/>
       <c r="R82" s="26"/>
@@ -9982,7 +9985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" ht="203" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
         <v>76</v>
       </c>
@@ -10021,13 +10024,13 @@
         <v>76</v>
       </c>
       <c r="N83" s="25" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="O83" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P83" s="37" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="Q83" s="25"/>
       <c r="R83" s="26"/>
@@ -10036,7 +10039,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="377" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" ht="348" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
         <v>77</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>76</v>
       </c>
       <c r="P84" s="37" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="Q84" s="25"/>
       <c r="R84" s="26"/>
@@ -10090,7 +10093,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
         <v>78</v>
       </c>
@@ -10129,13 +10132,13 @@
         <v>76</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="O85" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P85" s="25" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="Q85" s="25"/>
       <c r="R85" s="26"/>
@@ -10144,7 +10147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
         <v>79</v>
       </c>
@@ -10183,13 +10186,13 @@
         <v>76</v>
       </c>
       <c r="N86" s="25" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O86" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="Q86" s="25"/>
       <c r="R86" s="26"/>
@@ -10198,7 +10201,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" ht="232" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
         <v>80</v>
       </c>
@@ -10237,13 +10240,13 @@
         <v>76</v>
       </c>
       <c r="N87" s="25" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="O87" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="Q87" s="25"/>
       <c r="R87" s="26"/>
@@ -10290,7 +10293,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" ht="232" x14ac:dyDescent="0.35">
       <c r="A89" s="20">
         <v>82</v>
       </c>
@@ -10329,13 +10332,13 @@
         <v>76</v>
       </c>
       <c r="N89" s="25" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="O89" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="Q89" s="25"/>
       <c r="R89" s="26"/>
@@ -10344,7 +10347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" ht="232" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
         <v>83</v>
       </c>
@@ -10383,13 +10386,13 @@
         <v>76</v>
       </c>
       <c r="N90" s="25" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="O90" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="Q90" s="25"/>
       <c r="R90" s="26"/>
@@ -10398,7 +10401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="261" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A91" s="20">
         <v>84</v>
       </c>
@@ -10437,13 +10440,13 @@
         <v>76</v>
       </c>
       <c r="N91" s="25" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="O91" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="Q91" s="25"/>
       <c r="R91" s="26"/>
@@ -10452,7 +10455,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" ht="232" x14ac:dyDescent="0.35">
       <c r="A92" s="20">
         <v>85</v>
       </c>
@@ -10491,13 +10494,13 @@
         <v>76</v>
       </c>
       <c r="N92" s="25" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="O92" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="26"/>
